--- a/dataset/hotels/dev/dev.xlsx
+++ b/dataset/hotels/dev/dev.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smina\PycharmProject\surprising-aspects\dataset\hotels\dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D2A6998-9568-4757-A724-A1D23D9B9BF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FAA9918-A9D1-47EB-B390-987857912FD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="65">
   <si>
     <t>review</t>
   </si>
@@ -1417,6 +1417,31 @@
   </si>
   <si>
     <t>abs_true_other</t>
+  </si>
+  <si>
+    <t>TWO BODIES OF WATER, Gulf of Mexico, dolphins, sting rays, small sharks, two manatees, jet ski rental dock, sea birds, roseate spoonbill, volleyball net, parrot, little hotel shop, beach, Walgreens, Gondolier Pizza, Jolly Trolly, farmer's market, downtown</t>
+  </si>
+  <si>
+    <t>Pianist, Shopping, restaurants, bars</t>
+  </si>
+  <si>
+    <t>The hotel is near a beach.
+They have rooms between two bodies of water with panoramic views. A Customer had a view of the Gulf of Mexico. A customer saw dolphins, sting rays, small sharks, two manatees, sea birds and a roseate spoonbill- pretty and pink like a flamingo.
+There's a jet ski rental dock near the hotel pool.
+They have a volleyball net.
+They also have a unique attraction of a parrot that lives at the hotel.
+They have a little hotel shop.
+Walgreens is down the way. Gondolier Pizza, Jolly Trolly are in the area. Farmer's market is in the downtown area.</t>
+  </si>
+  <si>
+    <t>The hotel has a Pianist.
+Shopping, restaurants and bars are within a short walk from the hotel.</t>
+  </si>
+  <si>
+    <t>The hotel is half a block from a beach. Easy walk to State St.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trolley tours and Land Shark tour leave less than a block away from the hotel. </t>
   </si>
 </sst>
 </file>
@@ -1879,7 +1904,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1928,17 +1953,19 @@
         <v>45</v>
       </c>
       <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="I2" s="3"/>
+      <c r="I2" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -1958,7 +1985,7 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="1" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
@@ -1979,7 +2006,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="1" customFormat="1" ht="273.60000000000002" x14ac:dyDescent="0.3">
@@ -2014,22 +2041,20 @@
       <c r="B6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>49</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>50</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="1" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
@@ -2102,22 +2127,20 @@
       <c r="B10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>32</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="1" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
